--- a/assets/Genshin_All_Char.xlsx
+++ b/assets/Genshin_All_Char.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="208">
   <si>
     <t>角色</t>
   </si>
@@ -37,6 +37,9 @@
     <t>可莉</t>
   </si>
   <si>
+    <t>天空之卷</t>
+  </si>
+  <si>
     <t>流浪乐章</t>
   </si>
   <si>
@@ -46,25 +49,28 @@
     <t>武器有优先级顺序！！！</t>
   </si>
   <si>
+    <t>四风原典</t>
+  </si>
+  <si>
+    <t>嘟嘟可故事集</t>
+  </si>
+  <si>
+    <t>渡过烈火的贤人</t>
+  </si>
+  <si>
+    <t>尘世之锁</t>
+  </si>
+  <si>
+    <t>匣里日月</t>
+  </si>
+  <si>
+    <t>流浪大地的乐团</t>
+  </si>
+  <si>
     <t>神乐之真意</t>
   </si>
   <si>
-    <t>嘟嘟可故事集</t>
-  </si>
-  <si>
-    <t>渡过烈火的贤人</t>
-  </si>
-  <si>
-    <t>天空之卷</t>
-  </si>
-  <si>
-    <t>匣里日月</t>
-  </si>
-  <si>
-    <t>四风原典</t>
-  </si>
-  <si>
-    <t>尘世之锁</t>
+    <t>逆飞的流星</t>
   </si>
   <si>
     <t>温迪</t>
@@ -76,6 +82,9 @@
     <t>绝弦</t>
   </si>
   <si>
+    <t>鸦羽弓</t>
+  </si>
+  <si>
     <t>翠绿之影</t>
   </si>
   <si>
@@ -94,24 +103,27 @@
     <t>2+2写法</t>
   </si>
   <si>
+    <t>冬极白星</t>
+  </si>
+  <si>
+    <t>风花之颂</t>
+  </si>
+  <si>
+    <t>绝缘之旗印</t>
+  </si>
+  <si>
     <t>阿莫斯之弓</t>
   </si>
   <si>
-    <t>风花之颂</t>
+    <t>苍翠猎弓</t>
   </si>
   <si>
     <t>达达利亚</t>
   </si>
   <si>
-    <t>冬极白星</t>
-  </si>
-  <si>
     <t>弓藏</t>
   </si>
   <si>
-    <t>鸦羽弓</t>
-  </si>
-  <si>
     <t>沉沦之心</t>
   </si>
   <si>
@@ -142,22 +154,34 @@
     <t>千岩牢固</t>
   </si>
   <si>
+    <t>和璞鸢</t>
+  </si>
+  <si>
+    <t>西风长枪</t>
+  </si>
+  <si>
     <t>贯虹之槊</t>
   </si>
   <si>
-    <t>西风长枪</t>
+    <t>悠古的磐岩</t>
   </si>
   <si>
     <t>阿贝多</t>
   </si>
   <si>
+    <t>苍古自由之誓</t>
+  </si>
+  <si>
+    <t>辰砂之纺锤</t>
+  </si>
+  <si>
+    <t>黎明神剑</t>
+  </si>
+  <si>
     <t>磐岩结绿</t>
   </si>
   <si>
-    <t>辰砂之纺锤</t>
-  </si>
-  <si>
-    <t>黎明神剑</t>
+    <t>腐殖之剑</t>
   </si>
   <si>
     <t>华馆梦醒形骸记</t>
@@ -169,15 +193,18 @@
     <t>弹弓</t>
   </si>
   <si>
-    <t>流浪大地的乐团</t>
-  </si>
-  <si>
     <t>试做澹月</t>
   </si>
   <si>
     <t>冰风迷途的勇士</t>
   </si>
   <si>
+    <t>飞雷之振弦</t>
+  </si>
+  <si>
+    <t>黑岩战弓</t>
+  </si>
+  <si>
     <t>魈</t>
   </si>
   <si>
@@ -190,12 +217,15 @@
     <t>相比原2+2提升10%左右</t>
   </si>
   <si>
-    <t>和璞鸢</t>
-  </si>
-  <si>
     <t>黑岩长枪</t>
   </si>
   <si>
+    <t>千岩长枪</t>
+  </si>
+  <si>
+    <t>息灾</t>
+  </si>
+  <si>
     <t>天空之脊</t>
   </si>
   <si>
@@ -229,18 +259,24 @@
     <t>狼的末路</t>
   </si>
   <si>
+    <t>恶王丸</t>
+  </si>
+  <si>
+    <t>天空之傲</t>
+  </si>
+  <si>
     <t>枫原万叶</t>
   </si>
   <si>
-    <t>苍古自由之誓</t>
-  </si>
-  <si>
     <t>铁蜂刺</t>
   </si>
   <si>
     <t>祭礼剑</t>
   </si>
   <si>
+    <t>西风剑</t>
+  </si>
+  <si>
     <t>神里绫华</t>
   </si>
   <si>
@@ -250,225 +286,216 @@
     <t>天目影打刀</t>
   </si>
   <si>
+    <t>斫峰之刃</t>
+  </si>
+  <si>
+    <t>黑剑</t>
+  </si>
+  <si>
+    <t>黑岩长剑</t>
+  </si>
+  <si>
     <t>天空之刃</t>
   </si>
   <si>
-    <t>斫峰之刃</t>
+    <t>宵宫</t>
+  </si>
+  <si>
+    <t>神射手之誓</t>
+  </si>
+  <si>
+    <t>雷电将军</t>
+  </si>
+  <si>
+    <t>薙草之稻光</t>
+  </si>
+  <si>
+    <t>断浪长鳍</t>
+  </si>
+  <si>
+    <t>「渔获」</t>
+  </si>
+  <si>
+    <t>珊瑚宫心海</t>
+  </si>
+  <si>
+    <t>不灭月华</t>
+  </si>
+  <si>
+    <t>试作金珀</t>
+  </si>
+  <si>
+    <t>讨龙英杰谭</t>
+  </si>
+  <si>
+    <t>海染砗蟝</t>
+  </si>
+  <si>
+    <t>仅在心海输出队伍推荐不灭月华</t>
+  </si>
+  <si>
+    <t>证誓之明瞳</t>
+  </si>
+  <si>
+    <t>被怜爱的少女</t>
+  </si>
+  <si>
+    <t>永冻队辅助首选</t>
+  </si>
+  <si>
+    <t>白辰之环</t>
+  </si>
+  <si>
+    <t>荒泷一斗</t>
+  </si>
+  <si>
+    <t>赤角石溃杵</t>
+  </si>
+  <si>
+    <t>白影剑</t>
+  </si>
+  <si>
+    <t>白铁大剑</t>
+  </si>
+  <si>
+    <t>申鹤</t>
+  </si>
+  <si>
+    <t>八重神子</t>
+  </si>
+  <si>
+    <t>如雷的盛怒</t>
+  </si>
+  <si>
+    <t>平息鸣雷的尊者</t>
+  </si>
+  <si>
+    <t>刻晴</t>
+  </si>
+  <si>
+    <t>匣里龙吟</t>
   </si>
   <si>
     <t>风鹰剑</t>
   </si>
   <si>
-    <t>宵宫</t>
-  </si>
-  <si>
-    <t>飞雷之振弦</t>
-  </si>
-  <si>
-    <t>神射手之誓</t>
-  </si>
-  <si>
-    <t>雷电将军</t>
-  </si>
-  <si>
-    <t>薙草之稻光</t>
-  </si>
-  <si>
-    <t>「渔获」</t>
-  </si>
-  <si>
-    <t>绝缘之旗印</t>
-  </si>
-  <si>
-    <t>珊瑚宫心海</t>
-  </si>
-  <si>
-    <t>不灭月华</t>
+    <t>染血的骑士道</t>
+  </si>
+  <si>
+    <t>迪卢克</t>
+  </si>
+  <si>
+    <t>衔珠海皇</t>
+  </si>
+  <si>
+    <t>试作古华</t>
+  </si>
+  <si>
+    <t>雨裁</t>
+  </si>
+  <si>
+    <t>七七</t>
+  </si>
+  <si>
+    <t>试作斩岩</t>
+  </si>
+  <si>
+    <t>笛剑</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>莫娜</t>
+  </si>
+  <si>
+    <t>埃洛伊</t>
+  </si>
+  <si>
+    <t>掠食者</t>
+  </si>
+  <si>
+    <t>安柏</t>
+  </si>
+  <si>
+    <t>凯亚</t>
+  </si>
+  <si>
+    <t>飞天御剑</t>
+  </si>
+  <si>
+    <t>丽莎</t>
+  </si>
+  <si>
+    <t>万国诸海图谱</t>
+  </si>
+  <si>
+    <t>战狂</t>
+  </si>
+  <si>
+    <t>香菱</t>
+  </si>
+  <si>
+    <t>拿来吧你（五星都能带）</t>
+  </si>
+  <si>
+    <t>角色机制优秀，长柄武器基本都适用</t>
+  </si>
+  <si>
+    <t>诺艾尔</t>
+  </si>
+  <si>
+    <t>芭芭拉</t>
   </si>
   <si>
     <t>试做金珀</t>
   </si>
   <si>
-    <t>讨龙英杰谭</t>
-  </si>
-  <si>
-    <t>海染砗蟝</t>
-  </si>
-  <si>
-    <t>仅在心海输出队伍推荐不灭月华和天空之卷</t>
-  </si>
-  <si>
-    <t>白辰之环</t>
-  </si>
-  <si>
-    <t>永冻队辅助首选</t>
-  </si>
-  <si>
-    <t>荒泷一斗</t>
-  </si>
-  <si>
-    <t>赤角石溃杵</t>
-  </si>
-  <si>
-    <t>白影剑</t>
-  </si>
-  <si>
-    <t>白铁大剑</t>
-  </si>
-  <si>
-    <t>申鹤</t>
-  </si>
-  <si>
-    <t>息灾</t>
-  </si>
-  <si>
-    <t>千岩长枪</t>
-  </si>
-  <si>
-    <t>八重神子</t>
-  </si>
-  <si>
-    <t>如雷的盛怒</t>
-  </si>
-  <si>
-    <t>证誓之明瞳</t>
-  </si>
-  <si>
-    <t>刻晴</t>
-  </si>
-  <si>
-    <t>黑剑</t>
-  </si>
-  <si>
-    <t>匣里龙吟</t>
-  </si>
-  <si>
-    <t>平雷的尊者</t>
-  </si>
-  <si>
-    <t>迪卢克</t>
-  </si>
-  <si>
-    <t>衔珠海皇</t>
+    <t>菲谢尔</t>
+  </si>
+  <si>
+    <t>幽夜华尔兹</t>
+  </si>
+  <si>
+    <t>暗巷猎手</t>
+  </si>
+  <si>
+    <t>砂糖</t>
+  </si>
+  <si>
+    <t>祭礼残章</t>
+  </si>
+  <si>
+    <t>行秋</t>
+  </si>
+  <si>
+    <t>北斗</t>
+  </si>
+  <si>
+    <t>凝光</t>
+  </si>
+  <si>
+    <t>迪奥娜</t>
+  </si>
+  <si>
+    <t>祭礼弓</t>
+  </si>
+  <si>
+    <t>反曲弓</t>
+  </si>
+  <si>
+    <t>重云</t>
+  </si>
+  <si>
+    <t>祭礼大剑</t>
+  </si>
+  <si>
+    <t>雷泽</t>
   </si>
   <si>
     <t>试做古华</t>
   </si>
   <si>
-    <t>七七</t>
-  </si>
-  <si>
-    <t>试作斩岩</t>
-  </si>
-  <si>
-    <t>笛剑</t>
-  </si>
-  <si>
-    <t>被怜爱的少女</t>
-  </si>
-  <si>
-    <t>琴</t>
-  </si>
-  <si>
-    <t>腐殖之剑</t>
-  </si>
-  <si>
-    <t>西风剑</t>
-  </si>
-  <si>
-    <t>莫娜</t>
-  </si>
-  <si>
-    <t>埃洛伊</t>
-  </si>
-  <si>
-    <t>掠食者</t>
-  </si>
-  <si>
-    <t>战狂</t>
-  </si>
-  <si>
-    <t>吴姨酱</t>
-  </si>
-  <si>
-    <t>安柏</t>
-  </si>
-  <si>
-    <t>凯亚</t>
-  </si>
-  <si>
-    <t>飞天御剑</t>
-  </si>
-  <si>
-    <t>丽莎</t>
-  </si>
-  <si>
-    <t>万国诸海图谱</t>
-  </si>
-  <si>
-    <t>香菱</t>
-  </si>
-  <si>
-    <t>拿来吧你</t>
-  </si>
-  <si>
-    <t>角色机制优秀，长柄武器基本都适用</t>
-  </si>
-  <si>
-    <t>诺艾尔</t>
-  </si>
-  <si>
-    <t>逆飞的流星</t>
-  </si>
-  <si>
-    <t>芭芭拉</t>
-  </si>
-  <si>
-    <t>菲谢尔</t>
-  </si>
-  <si>
-    <t>幽夜华尔兹</t>
-  </si>
-  <si>
-    <t>暗巷猎手</t>
-  </si>
-  <si>
-    <t>砂糖</t>
-  </si>
-  <si>
-    <t>祭礼残章</t>
-  </si>
-  <si>
-    <t>行秋</t>
-  </si>
-  <si>
-    <t>北斗</t>
-  </si>
-  <si>
-    <t>凝光</t>
-  </si>
-  <si>
-    <t>悠古的磐岩</t>
-  </si>
-  <si>
-    <t>迪奥娜</t>
-  </si>
-  <si>
-    <t>祭礼弓</t>
-  </si>
-  <si>
-    <t>反曲弓</t>
-  </si>
-  <si>
-    <t>重云</t>
-  </si>
-  <si>
-    <t>祭礼大剑</t>
-  </si>
-  <si>
-    <t>雷泽</t>
-  </si>
-  <si>
     <t>辛焱</t>
   </si>
   <si>
@@ -490,13 +517,19 @@
     <t>烟绯</t>
   </si>
   <si>
+    <t>黑岩绯玉</t>
+  </si>
+  <si>
     <t>早柚</t>
   </si>
   <si>
     <t>桂木斩长正</t>
   </si>
   <si>
-    <t>天空之傲</t>
+    <t>沐浴龙血的剑</t>
+  </si>
+  <si>
+    <t>西风大剑</t>
   </si>
   <si>
     <t>九条裟罗</t>
@@ -511,9 +544,15 @@
     <t>五郎</t>
   </si>
   <si>
+    <t>充能/防御散件</t>
+  </si>
+  <si>
     <t>云堇</t>
   </si>
   <si>
+    <t>试作星镰</t>
+  </si>
+  <si>
     <t>旅行者（风）</t>
   </si>
   <si>
@@ -535,26 +574,36 @@
     <t>来歆余响</t>
   </si>
   <si>
-    <t>夜阑
+    <t>夜兰</t>
+  </si>
+  <si>
+    <t>若水</t>
+  </si>
+  <si>
+    <t>落霞</t>
+  </si>
+  <si>
+    <t>久岐忍</t>
+  </si>
+  <si>
+    <t>海染砗磲</t>
+  </si>
+  <si>
+    <t>鹿野院平藏
 （暂称）</t>
   </si>
   <si>
-    <t>久岐忍</t>
-  </si>
-  <si>
-    <t>鹿野原平藏</t>
-  </si>
-  <si>
     <t>白术</t>
   </si>
   <si>
-    <t>瑶瑶</t>
-  </si>
-  <si>
-    <t>雷电国崩
+    <t>瑶瑶
 （暂称）</t>
   </si>
   <si>
+    <t>雷电国崩/散兵
+（待证实）</t>
+  </si>
+  <si>
     <t>赛诺</t>
   </si>
   <si>
@@ -565,6 +614,39 @@
   </si>
   <si>
     <t>伊安珊</t>
+  </si>
+  <si>
+    <t>普契涅拉/公鸡
+（待证实）</t>
+  </si>
+  <si>
+    <t>无疑酱
+（彩蛋）</t>
+  </si>
+  <si>
+    <t>阿信</t>
+  </si>
+  <si>
+    <t>小仙</t>
+  </si>
+  <si>
+    <t>法尔伽
+（待证实）</t>
+  </si>
+  <si>
+    <t>柯莱
+（待证实）</t>
+  </si>
+  <si>
+    <t>Tighnari
+（待证实）</t>
+  </si>
+  <si>
+    <t>队长（待证实）</t>
+  </si>
+  <si>
+    <t>戴因斯雷布
+（待证实）</t>
   </si>
 </sst>
 </file>
@@ -572,44 +654,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="188" formatCode="yy/m/d"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="189" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="195" formatCode="mmmmm"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="yy/m/d"/>
+    <numFmt numFmtId="184" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="m/d"/>
+    <numFmt numFmtId="186" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="198" formatCode="m/d"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="189" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="190" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="191" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="196" formatCode="#\ ??"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="198" formatCode="mmmmm"/>
+    <numFmt numFmtId="199" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="201" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="200" formatCode="#\ ??"/>
-    <numFmt numFmtId="201" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -666,6 +748,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -674,15 +763,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +810,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -704,10 +818,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,17 +833,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,13 +850,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,25 +863,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,16 +877,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,13 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +978,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,85 +1098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,31 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,19 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,6 +1264,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1197,11 +1288,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,17 +1318,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,172 +1343,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,12 +1545,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,8 +1692,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1625,6 +1707,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,6 +1724,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1646,8 +1740,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1974,12 +2068,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A252" sqref="$A252:$XFD256"/>
+      <selection pane="bottomLeft" activeCell="E257" sqref="E257:E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2015,122 +2109,131 @@
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
+      <c r="E2" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:7">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="17" t="s">
-        <v>12</v>
+      <c r="E3" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="46"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="46"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="46"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="17"/>
       <c r="G6" s="46"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:7">
       <c r="A7" s="19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:7">
       <c r="A8" s="21"/>
       <c r="B8" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:7">
       <c r="A9" s="21"/>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+      <c r="B9" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="48"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
       <c r="A10" s="21"/>
+      <c r="B10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="48"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:7">
@@ -2139,53 +2242,53 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:7">
       <c r="A12" s="23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G12" s="49"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:7">
       <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G13" s="49"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:7">
       <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="49"/>
@@ -2193,10 +2296,10 @@
     <row r="15" s="4" customFormat="1" spans="1:7">
       <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>23</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="24"/>
@@ -2206,7 +2309,7 @@
     <row r="16" s="4" customFormat="1" spans="1:7">
       <c r="A16" s="26"/>
       <c r="B16" s="24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2216,38 +2319,51 @@
     </row>
     <row r="17" s="5" customFormat="1" spans="1:7">
       <c r="A17" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="50"/>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:7">
       <c r="A18" s="29"/>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
+      <c r="B18" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G18" s="50"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:7">
       <c r="A19" s="29"/>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="50"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:7">
@@ -2260,29 +2376,44 @@
     </row>
     <row r="22" s="5" customFormat="1" spans="1:7">
       <c r="A22" s="27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="50"/>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:7">
       <c r="A23" s="29"/>
+      <c r="B23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="G23" s="50"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:7">
       <c r="A24" s="29"/>
+      <c r="E24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="50"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:7">
@@ -2295,44 +2426,53 @@
     </row>
     <row r="27" s="6" customFormat="1" spans="1:7">
       <c r="A27" s="31" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="51"/>
     </row>
     <row r="28" s="6" customFormat="1" spans="1:7">
       <c r="A28" s="33"/>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
+      <c r="B28" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="D28" s="32"/>
       <c r="E28" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="51"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="1:7">
       <c r="A29" s="33"/>
+      <c r="B29" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="51"/>
     </row>
     <row r="30" s="6" customFormat="1" spans="1:7">
       <c r="A30" s="33"/>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G30" s="51"/>
     </row>
     <row r="31" s="6" customFormat="1" spans="1:7">
@@ -2341,102 +2481,114 @@
     </row>
     <row r="32" s="3" customFormat="1" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="52" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:7">
       <c r="A33" s="21"/>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G33" s="48"/>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:7">
       <c r="A34" s="21"/>
       <c r="B34" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G34" s="48"/>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:7">
       <c r="A35" s="21"/>
+      <c r="B35" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="G35" s="48"/>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:7">
       <c r="A36" s="22"/>
+      <c r="B36" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="G36" s="48"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:7">
       <c r="A37" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="46"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:7">
       <c r="A38" s="36"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="17" t="s">
-        <v>36</v>
+      <c r="E38" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="46"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:7">
       <c r="A39" s="36"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>59</v>
+      <c r="B39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2445,7 +2597,7 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:7">
       <c r="A40" s="36"/>
-      <c r="B40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2454,7 +2606,7 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:7">
       <c r="A41" s="37"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2463,17 +2615,17 @@
     </row>
     <row r="42" s="6" customFormat="1" spans="1:7">
       <c r="A42" s="31" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="51"/>
@@ -2481,41 +2633,47 @@
     <row r="43" s="6" customFormat="1" spans="1:7">
       <c r="A43" s="33"/>
       <c r="B43" s="32" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G43" s="51"/>
     </row>
     <row r="44" s="6" customFormat="1" spans="1:7">
       <c r="A44" s="33"/>
       <c r="B44" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G44" s="51"/>
     </row>
     <row r="45" s="6" customFormat="1" spans="1:7">
       <c r="A45" s="33"/>
-      <c r="B45" s="32"/>
+      <c r="B45" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="51"/>
     </row>
@@ -2530,28 +2688,26 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:7">
       <c r="A47" s="19" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="48"/>
     </row>
     <row r="48" s="3" customFormat="1" spans="1:7">
       <c r="A48" s="21"/>
-      <c r="B48" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2560,6 +2716,9 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:7">
       <c r="A49" s="21"/>
+      <c r="C49" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="G49" s="48"/>
     </row>
     <row r="50" s="3" customFormat="1" spans="1:7">
@@ -2572,19 +2731,19 @@
     </row>
     <row r="52" s="6" customFormat="1" spans="1:7">
       <c r="A52" s="31" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="51"/>
@@ -2592,24 +2751,28 @@
     <row r="53" s="6" customFormat="1" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G53" s="51"/>
     </row>
     <row r="54" s="6" customFormat="1" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2618,7 +2781,7 @@
     <row r="55" s="6" customFormat="1" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="32" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2628,9 +2791,7 @@
     </row>
     <row r="56" s="6" customFormat="1" spans="1:7">
       <c r="A56" s="34"/>
-      <c r="B56" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="B56" s="32"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -2639,54 +2800,62 @@
     </row>
     <row r="57" s="2" customFormat="1" spans="1:7">
       <c r="A57" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="46"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:7">
       <c r="A58" s="39"/>
-      <c r="B58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="17"/>
+      <c r="B58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="18"/>
       <c r="G58" s="46"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:7">
       <c r="A59" s="39"/>
-      <c r="B59" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>36</v>
+      <c r="B59" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="G59" s="46"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:7">
       <c r="A60" s="39"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2694,7 +2863,7 @@
     </row>
     <row r="61" s="2" customFormat="1" spans="1:7">
       <c r="A61" s="40"/>
-      <c r="B61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2703,17 +2872,17 @@
     </row>
     <row r="62" s="7" customFormat="1" spans="1:7">
       <c r="A62" s="41" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="42" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="53"/>
@@ -2721,14 +2890,14 @@
     <row r="63" s="7" customFormat="1" spans="1:7">
       <c r="A63" s="43"/>
       <c r="B63" s="42" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="53"/>
@@ -2736,9 +2905,11 @@
     <row r="64" s="7" customFormat="1" spans="1:7">
       <c r="A64" s="43"/>
       <c r="B64" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>43</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -2746,6 +2917,12 @@
     </row>
     <row r="65" s="7" customFormat="1" spans="1:7">
       <c r="A65" s="43"/>
+      <c r="B65" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="G65" s="53"/>
     </row>
     <row r="66" s="7" customFormat="1" spans="1:7">
@@ -2754,46 +2931,51 @@
     </row>
     <row r="67" s="8" customFormat="1" spans="1:7">
       <c r="A67" s="55" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="61" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" s="8" customFormat="1" spans="1:7">
       <c r="A68" s="57"/>
-      <c r="B68" s="56" t="s">
-        <v>13</v>
-      </c>
+      <c r="B68" s="56"/>
       <c r="C68" s="56" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D68" s="56"/>
       <c r="E68" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F68" s="56" t="s">
+        <v>107</v>
+      </c>
       <c r="G68" s="61" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" s="8" customFormat="1" spans="1:7">
       <c r="A69" s="57"/>
+      <c r="C69" s="56" t="s">
+        <v>109</v>
+      </c>
       <c r="D69" s="56"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="F69" s="8"/>
       <c r="G69" s="62"/>
     </row>
@@ -2812,27 +2994,30 @@
     </row>
     <row r="72" s="5" customFormat="1" spans="1:7">
       <c r="A72" s="27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="50"/>
     </row>
     <row r="73" s="5" customFormat="1" spans="1:7">
       <c r="A73" s="29"/>
+      <c r="B73" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="C73" s="28" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2853,17 +3038,17 @@
     </row>
     <row r="77" s="6" customFormat="1" spans="1:7">
       <c r="A77" s="31" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="51"/>
@@ -2871,26 +3056,28 @@
     <row r="78" s="6" customFormat="1" spans="1:7">
       <c r="A78" s="33"/>
       <c r="B78" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G78" s="51"/>
     </row>
     <row r="79" s="6" customFormat="1" spans="1:7">
       <c r="A79" s="33"/>
       <c r="B79" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -2898,6 +3085,9 @@
     </row>
     <row r="80" s="6" customFormat="1" spans="1:7">
       <c r="A80" s="33"/>
+      <c r="B80" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="G80" s="51"/>
     </row>
     <row r="81" s="6" customFormat="1" spans="1:7">
@@ -2906,63 +3096,67 @@
     </row>
     <row r="82" s="7" customFormat="1" spans="1:7">
       <c r="A82" s="41" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G82" s="53"/>
     </row>
     <row r="83" s="7" customFormat="1" spans="1:7">
       <c r="A83" s="43"/>
       <c r="B83" s="42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G83" s="53"/>
     </row>
     <row r="84" s="7" customFormat="1" spans="1:7">
       <c r="A84" s="43"/>
       <c r="B84" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>106</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G84" s="53"/>
     </row>
     <row r="85" s="7" customFormat="1" spans="1:7">
       <c r="A85" s="43"/>
       <c r="B85" s="42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="42" t="s">
+        <v>117</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="53"/>
     </row>
@@ -2972,17 +3166,17 @@
     </row>
     <row r="87" s="7" customFormat="1" spans="1:7">
       <c r="A87" s="41" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="42" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="53"/>
@@ -2990,82 +3184,111 @@
     <row r="88" s="7" customFormat="1" spans="1:7">
       <c r="A88" s="43"/>
       <c r="B88" s="42" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F88" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="F88" s="42" t="s">
+        <v>37</v>
+      </c>
       <c r="G88" s="53"/>
     </row>
     <row r="89" s="7" customFormat="1" spans="1:7">
       <c r="A89" s="43"/>
       <c r="B89" s="42" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="E89" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>40</v>
+      </c>
       <c r="G89" s="53"/>
     </row>
     <row r="90" s="7" customFormat="1" spans="1:7">
       <c r="A90" s="43"/>
+      <c r="E90" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>121</v>
+      </c>
       <c r="G90" s="53"/>
     </row>
     <row r="91" s="7" customFormat="1" spans="1:7">
       <c r="A91" s="54"/>
+      <c r="E91" s="42" t="s">
+        <v>121</v>
+      </c>
       <c r="G91" s="53"/>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:7">
       <c r="A92" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>65</v>
+        <v>122</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="17" t="s">
-        <v>8</v>
+      <c r="E92" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="46"/>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:7">
       <c r="A93" s="36"/>
-      <c r="B93" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>111</v>
+      <c r="B93" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="E93" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="G93" s="46"/>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:7">
       <c r="A94" s="36"/>
-      <c r="B94" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>112</v>
+      <c r="B94" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="E94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="G94" s="46"/>
     </row>
     <row r="95" s="2" customFormat="1" spans="1:7">
       <c r="A95" s="36"/>
+      <c r="C95" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="G95" s="46"/>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:7">
@@ -3074,17 +3297,17 @@
     </row>
     <row r="97" s="6" customFormat="1" spans="1:7">
       <c r="A97" s="31" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="32" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="51"/>
@@ -3092,14 +3315,14 @@
     <row r="98" s="6" customFormat="1" spans="1:7">
       <c r="A98" s="33"/>
       <c r="B98" s="32" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="51"/>
@@ -3107,20 +3330,32 @@
     <row r="99" s="6" customFormat="1" spans="1:7">
       <c r="A99" s="33"/>
       <c r="B99" s="32" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="51"/>
     </row>
     <row r="100" s="6" customFormat="1" spans="1:7">
       <c r="A100" s="33"/>
+      <c r="B100" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="G100" s="51"/>
     </row>
     <row r="101" s="6" customFormat="1" spans="1:7">
@@ -3129,17 +3364,17 @@
     </row>
     <row r="102" s="3" customFormat="1" spans="1:7">
       <c r="A102" s="19" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="48"/>
@@ -3147,30 +3382,42 @@
     <row r="103" s="3" customFormat="1" spans="1:7">
       <c r="A103" s="21"/>
       <c r="B103" s="20" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="E103" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="G103" s="48"/>
     </row>
     <row r="104" s="3" customFormat="1" spans="1:7">
       <c r="A104" s="21"/>
+      <c r="B104" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C104" s="20" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="E104" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="48"/>
     </row>
     <row r="105" s="3" customFormat="1" spans="1:7">
       <c r="A105" s="21"/>
+      <c r="B105" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C105" s="20" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3179,119 +3426,138 @@
     </row>
     <row r="106" s="3" customFormat="1" spans="1:7">
       <c r="A106" s="22"/>
+      <c r="C106" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="G106" s="48"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="1:7">
       <c r="A107" s="23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="49"/>
     </row>
     <row r="108" s="4" customFormat="1" spans="1:7">
       <c r="A108" s="59"/>
+      <c r="B108" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="C108" s="24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="49"/>
     </row>
     <row r="109" s="4" customFormat="1" spans="1:7">
       <c r="A109" s="59"/>
+      <c r="C109" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="E109" s="24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="49"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="1:7">
       <c r="A110" s="59"/>
+      <c r="C110" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="E110" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G110" s="49"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="1:7">
       <c r="A111" s="60"/>
       <c r="E111" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G111" s="49"/>
     </row>
     <row r="112" s="6" customFormat="1" spans="1:7">
       <c r="A112" s="31" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F112" s="6"/>
+        <v>60</v>
+      </c>
       <c r="G112" s="51"/>
     </row>
     <row r="113" s="6" customFormat="1" spans="1:7">
       <c r="A113" s="33"/>
       <c r="B113" s="32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F113" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G113" s="51"/>
     </row>
     <row r="114" s="6" customFormat="1" spans="1:7">
       <c r="A114" s="33"/>
       <c r="B114" s="32" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G114" s="51"/>
     </row>
     <row r="115" s="6" customFormat="1" spans="1:7">
       <c r="A115" s="33"/>
-      <c r="B115" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="C115" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="51"/>
     </row>
     <row r="116" s="6" customFormat="1" spans="1:7">
@@ -3300,25 +3566,25 @@
     </row>
     <row r="117" s="2" customFormat="1" spans="1:7">
       <c r="A117" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>19</v>
+        <v>133</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="17" t="s">
-        <v>24</v>
+      <c r="E117" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="46"/>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:7">
       <c r="A118" s="36"/>
-      <c r="B118" s="17" t="s">
-        <v>18</v>
+      <c r="B118" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3328,8 +3594,8 @@
     </row>
     <row r="119" s="2" customFormat="1" spans="1:7">
       <c r="A119" s="36"/>
-      <c r="B119" s="17" t="s">
-        <v>22</v>
+      <c r="B119" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3347,19 +3613,19 @@
     </row>
     <row r="122" s="6" customFormat="1" spans="1:7">
       <c r="A122" s="31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D122" s="32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="51"/>
@@ -3367,16 +3633,16 @@
     <row r="123" s="6" customFormat="1" spans="1:7">
       <c r="A123" s="33"/>
       <c r="B123" s="32" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="51"/>
@@ -3384,11 +3650,11 @@
     <row r="124" s="6" customFormat="1" spans="1:7">
       <c r="A124" s="33"/>
       <c r="C124" s="32" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="51"/>
@@ -3403,17 +3669,17 @@
     </row>
     <row r="127" s="7" customFormat="1" spans="1:7">
       <c r="A127" s="41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="53"/>
@@ -3421,31 +3687,31 @@
     <row r="128" s="7" customFormat="1" spans="1:7">
       <c r="A128" s="43"/>
       <c r="B128" s="42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F128" s="42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G128" s="53"/>
     </row>
     <row r="129" s="7" customFormat="1" spans="1:7">
       <c r="A129" s="43"/>
       <c r="B129" s="42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="42" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="53"/>
@@ -3460,17 +3726,17 @@
     </row>
     <row r="132" s="2" customFormat="1" spans="1:7">
       <c r="A132" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="17" t="s">
-        <v>8</v>
+      <c r="E132" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="46"/>
@@ -3478,11 +3744,11 @@
     <row r="133" s="2" customFormat="1" spans="1:7">
       <c r="A133" s="36"/>
       <c r="C133" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="17" t="s">
-        <v>87</v>
+      <c r="E133" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="46"/>
@@ -3490,17 +3756,17 @@
     <row r="134" s="2" customFormat="1" spans="1:7">
       <c r="A134" s="36"/>
       <c r="C134" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G134" s="46" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:7">
@@ -3513,17 +3779,17 @@
     </row>
     <row r="137" s="5" customFormat="1" spans="1:7">
       <c r="A137" s="27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="50"/>
@@ -3531,11 +3797,11 @@
     <row r="138" s="5" customFormat="1" spans="1:7">
       <c r="A138" s="29"/>
       <c r="C138" s="28" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="28" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="50"/>
@@ -3543,7 +3809,7 @@
     <row r="139" s="5" customFormat="1" spans="1:7">
       <c r="A139" s="29"/>
       <c r="E139" s="28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="50"/>
@@ -3558,19 +3824,19 @@
     </row>
     <row r="142" s="4" customFormat="1" spans="1:7">
       <c r="A142" s="63" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="49"/>
@@ -3593,48 +3859,48 @@
     </row>
     <row r="147" s="7" customFormat="1" spans="1:7">
       <c r="A147" s="41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F147" s="42" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G147" s="53"/>
     </row>
     <row r="148" s="7" customFormat="1" spans="1:7">
       <c r="A148" s="43"/>
       <c r="C148" s="42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F148" s="42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G148" s="53"/>
     </row>
     <row r="149" s="7" customFormat="1" spans="1:7">
       <c r="A149" s="43"/>
       <c r="C149" s="42" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F149" s="42" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G149" s="53"/>
     </row>
@@ -3648,16 +3914,16 @@
     </row>
     <row r="152" s="3" customFormat="1" spans="1:7">
       <c r="A152" s="19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="48"/>
@@ -3680,19 +3946,19 @@
     </row>
     <row r="157" s="4" customFormat="1" spans="1:7">
       <c r="A157" s="63" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B157" s="24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="49"/>
@@ -3700,14 +3966,14 @@
     <row r="158" s="4" customFormat="1" spans="1:7">
       <c r="A158" s="25"/>
       <c r="C158" s="24" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G158" s="49"/>
     </row>
@@ -3725,17 +3991,17 @@
     </row>
     <row r="162" s="7" customFormat="1" spans="1:7">
       <c r="A162" s="41" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="42" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="53"/>
@@ -3743,17 +4009,17 @@
     <row r="163" s="7" customFormat="1" spans="1:7">
       <c r="A163" s="43"/>
       <c r="B163" s="42" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F163" s="42" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G163" s="53"/>
     </row>
@@ -3771,30 +4037,30 @@
     </row>
     <row r="167" s="5" customFormat="1" spans="1:7">
       <c r="A167" s="27" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="28" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G167" s="50"/>
     </row>
     <row r="168" s="5" customFormat="1" spans="1:7">
       <c r="A168" s="29"/>
       <c r="B168" s="28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -3804,10 +4070,10 @@
     <row r="169" s="5" customFormat="1" spans="1:7">
       <c r="A169" s="29"/>
       <c r="B169" s="28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -3824,19 +4090,19 @@
     </row>
     <row r="172" s="6" customFormat="1" spans="1:7">
       <c r="A172" s="31" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B172" s="32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="51"/>
@@ -3844,21 +4110,21 @@
     <row r="173" s="6" customFormat="1" spans="1:7">
       <c r="A173" s="33"/>
       <c r="C173" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G173" s="51"/>
     </row>
     <row r="174" s="6" customFormat="1" spans="1:7">
       <c r="A174" s="33"/>
       <c r="E174" s="32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="51"/>
@@ -3873,17 +4139,17 @@
     </row>
     <row r="177" s="6" customFormat="1" spans="1:7">
       <c r="A177" s="31" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B177" s="32" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="51"/>
@@ -3891,11 +4157,11 @@
     <row r="178" s="6" customFormat="1" spans="1:7">
       <c r="A178" s="33"/>
       <c r="C178" s="32" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D178" s="6"/>
       <c r="E178" s="32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="51"/>
@@ -3914,17 +4180,17 @@
     </row>
     <row r="182" s="7" customFormat="1" spans="1:7">
       <c r="A182" s="41" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B182" s="42" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="42" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="53"/>
@@ -3932,45 +4198,48 @@
     <row r="183" s="7" customFormat="1" spans="1:7">
       <c r="A183" s="43"/>
       <c r="B183" s="42" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="42" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F183" s="42" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G183" s="53"/>
     </row>
     <row r="184" s="7" customFormat="1" spans="1:7">
       <c r="A184" s="43"/>
       <c r="B184" s="42" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="42" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F184" s="42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G184" s="53"/>
     </row>
     <row r="185" s="7" customFormat="1" spans="1:7">
       <c r="A185" s="43"/>
+      <c r="B185" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C185" s="42" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="42" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="53"/>
@@ -3978,132 +4247,135 @@
     <row r="186" s="7" customFormat="1" spans="1:7">
       <c r="A186" s="54"/>
       <c r="E186" s="42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F186" s="7"/>
       <c r="G186" s="53"/>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:7">
       <c r="A187" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B187" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>65</v>
+        <v>160</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="D187" s="2"/>
-      <c r="E187" s="17" t="s">
-        <v>66</v>
+      <c r="E187" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="46"/>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:7">
       <c r="A188" s="36"/>
-      <c r="B188" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>68</v>
+      <c r="B188" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="D188" s="2"/>
-      <c r="E188" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F188" s="17" t="s">
-        <v>69</v>
+      <c r="E188" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F188" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="G188" s="46"/>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:7">
       <c r="A189" s="36"/>
-      <c r="B189" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>111</v>
+      <c r="B189" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F189" s="17" t="s">
-        <v>33</v>
+      <c r="E189" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F189" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G189" s="46"/>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:7">
       <c r="A190" s="36"/>
-      <c r="B190" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>112</v>
+      <c r="B190" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="17" t="s">
-        <v>134</v>
+      <c r="E190" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="46"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:7">
       <c r="A191" s="37"/>
-      <c r="C191" s="17" t="s">
-        <v>98</v>
+      <c r="B191" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D191" s="2"/>
-      <c r="E191" s="17" t="s">
-        <v>33</v>
+      <c r="E191" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="46"/>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:7">
       <c r="A192" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>118</v>
+        <v>161</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D192" s="2"/>
-      <c r="E192" s="17" t="s">
-        <v>24</v>
+      <c r="E192" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="46"/>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:7">
       <c r="A193" s="36"/>
-      <c r="B193" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>119</v>
+      <c r="B193" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="D193" s="2"/>
-      <c r="E193" s="17" t="s">
-        <v>116</v>
+      <c r="E193" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="46"/>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:7">
       <c r="A194" s="36"/>
-      <c r="B194" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>153</v>
+      <c r="B194" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="D194" s="2"/>
-      <c r="E194" s="17" t="s">
-        <v>154</v>
+      <c r="E194" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="46"/>
@@ -4118,17 +4390,17 @@
     </row>
     <row r="197" s="6" customFormat="1" spans="1:7">
       <c r="A197" s="64" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B197" s="32" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="51"/>
@@ -4136,10 +4408,10 @@
     <row r="198" s="6" customFormat="1" spans="1:7">
       <c r="A198" s="33"/>
       <c r="B198" s="32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
@@ -4149,7 +4421,7 @@
     <row r="199" s="6" customFormat="1" spans="1:7">
       <c r="A199" s="33"/>
       <c r="C199" s="32" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
@@ -4166,40 +4438,44 @@
     </row>
     <row r="202" s="2" customFormat="1" spans="1:7">
       <c r="A202" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B202" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="C202" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="D202" s="2"/>
-      <c r="E202" s="17" t="s">
-        <v>8</v>
+      <c r="E202" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="46"/>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:7">
       <c r="A203" s="36"/>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C203" s="2"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="17" t="s">
-        <v>51</v>
+      <c r="E203" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="46"/>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:7">
       <c r="A204" s="36"/>
-      <c r="B204" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C204" s="2"/>
+      <c r="B204" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -4207,25 +4483,33 @@
     </row>
     <row r="205" s="2" customFormat="1" spans="1:7">
       <c r="A205" s="36"/>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G205" s="46"/>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:7">
       <c r="A206" s="37"/>
+      <c r="C206" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G206" s="46"/>
     </row>
     <row r="207" s="3" customFormat="1" spans="1:7">
       <c r="A207" s="19" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D207" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E207" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="48"/>
@@ -4233,20 +4517,35 @@
     <row r="208" s="3" customFormat="1" spans="1:7">
       <c r="A208" s="21"/>
       <c r="B208" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C208" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
+      <c r="E208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G208" s="48"/>
     </row>
     <row r="209" s="3" customFormat="1" spans="1:7">
       <c r="A209" s="21"/>
+      <c r="C209" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G209" s="48"/>
     </row>
     <row r="210" s="3" customFormat="1" spans="1:7">
       <c r="A210" s="21"/>
+      <c r="C210" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="G210" s="48"/>
     </row>
     <row r="211" s="3" customFormat="1" spans="1:7">
@@ -4255,17 +4554,17 @@
     </row>
     <row r="212" s="7" customFormat="1" spans="1:7">
       <c r="A212" s="41" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C212" s="42" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D212" s="7"/>
       <c r="E212" s="42" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="53"/>
@@ -4273,22 +4572,36 @@
     <row r="213" s="7" customFormat="1" spans="1:7">
       <c r="A213" s="43"/>
       <c r="B213" s="42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
+      <c r="E213" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F213" s="7"/>
       <c r="G213" s="53"/>
     </row>
     <row r="214" s="7" customFormat="1" spans="1:7">
       <c r="A214" s="43"/>
+      <c r="C214" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="G214" s="53"/>
     </row>
     <row r="215" s="7" customFormat="1" spans="1:7">
       <c r="A215" s="43"/>
+      <c r="C215" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="G215" s="53"/>
     </row>
     <row r="216" s="7" customFormat="1" spans="1:7">
@@ -4297,42 +4610,44 @@
     </row>
     <row r="217" s="2" customFormat="1" spans="1:7">
       <c r="A217" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B217" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" s="17" t="s">
-        <v>24</v>
+        <v>173</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="46"/>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:7">
       <c r="A218" s="36"/>
-      <c r="B218" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>163</v>
+      <c r="B218" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="D218" s="2"/>
-      <c r="E218" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F218" s="17" t="s">
-        <v>87</v>
+      <c r="E218" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F218" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="G218" s="46"/>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:7">
       <c r="A219" s="36"/>
-      <c r="B219" s="17" t="s">
-        <v>60</v>
+      <c r="B219" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4350,20 +4665,32 @@
     </row>
     <row r="222" s="5" customFormat="1" spans="1:7">
       <c r="A222" s="27" t="s">
-        <v>164</v>
+        <v>175</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C222" s="28" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F222" s="5"/>
       <c r="G222" s="50"/>
     </row>
     <row r="223" s="5" customFormat="1" spans="1:7">
       <c r="A223" s="29"/>
+      <c r="C223" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="G223" s="50"/>
     </row>
     <row r="224" s="5" customFormat="1" spans="1:7">
@@ -4380,14 +4707,17 @@
     </row>
     <row r="227" s="5" customFormat="1" spans="1:7">
       <c r="A227" s="27" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F227" s="5"/>
       <c r="G227" s="50"/>
@@ -4395,21 +4725,21 @@
     <row r="228" s="5" customFormat="1" spans="1:7">
       <c r="A228" s="29"/>
       <c r="C228" s="28" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G228" s="50"/>
     </row>
     <row r="229" s="5" customFormat="1" spans="1:7">
       <c r="A229" s="29"/>
       <c r="C229" s="28" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -4426,28 +4756,30 @@
     </row>
     <row r="232" s="3" customFormat="1" spans="1:7">
       <c r="A232" s="19" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C232" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D232" s="3"/>
       <c r="E232" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G232" s="48"/>
     </row>
     <row r="233" s="3" customFormat="1" spans="1:7">
       <c r="A233" s="21"/>
       <c r="E233" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G233" s="48"/>
     </row>
@@ -4465,27 +4797,30 @@
     </row>
     <row r="237" s="5" customFormat="1" spans="1:7">
       <c r="A237" s="27" t="s">
-        <v>167</v>
+        <v>180</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F237" s="28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G237" s="50"/>
     </row>
     <row r="238" s="5" customFormat="1" spans="1:7">
       <c r="A238" s="29"/>
       <c r="E238" s="5" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F238" s="28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G238" s="50"/>
     </row>
@@ -4503,31 +4838,31 @@
     </row>
     <row r="242" s="7" customFormat="1" spans="1:7">
       <c r="A242" s="65" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B242" s="42" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D242" s="42" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E242" s="42" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F242" s="42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G242" s="69" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="243" s="7" customFormat="1" spans="1:7">
       <c r="A243" s="43"/>
       <c r="C243" s="42" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -4548,17 +4883,19 @@
     </row>
     <row r="247" s="4" customFormat="1" spans="1:7">
       <c r="A247" s="63" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D247" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E247" s="24" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="49"/>
@@ -4566,18 +4903,29 @@
     <row r="248" s="4" customFormat="1" spans="1:7">
       <c r="A248" s="25"/>
       <c r="B248" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C248" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="C248" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="D248" s="4"/>
       <c r="E248" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F248" s="4"/>
       <c r="G248" s="49"/>
     </row>
     <row r="249" s="4" customFormat="1" spans="1:7">
       <c r="A249" s="25"/>
+      <c r="B249" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E249" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="G249" s="49"/>
     </row>
     <row r="250" s="4" customFormat="1" spans="1:7">
@@ -4588,39 +4936,108 @@
       <c r="A251" s="25"/>
       <c r="G251" s="70"/>
     </row>
-    <row r="252" s="10" customFormat="1" ht="18" spans="1:1">
+    <row r="252" s="10" customFormat="1" ht="18" spans="1:6">
       <c r="A252" s="66" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="253" s="10" customFormat="1" ht="18" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B252" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C252" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F252" s="24"/>
+    </row>
+    <row r="253" s="10" customFormat="1" ht="18" spans="1:6">
       <c r="A253" s="67"/>
-    </row>
-    <row r="254" s="10" customFormat="1" ht="18" spans="1:1">
+      <c r="B253" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253" s="24"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F253" s="24"/>
+    </row>
+    <row r="254" s="10" customFormat="1" ht="18" spans="1:6">
       <c r="A254" s="67"/>
-    </row>
-    <row r="255" s="10" customFormat="1" ht="18" spans="1:1">
+      <c r="B254" s="24"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F254" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" s="10" customFormat="1" ht="18" spans="1:6">
       <c r="A255" s="67"/>
-    </row>
-    <row r="256" s="10" customFormat="1" ht="18" spans="1:1">
+      <c r="B255" s="24"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="24"/>
+    </row>
+    <row r="256" s="10" customFormat="1" ht="18" spans="1:6">
       <c r="A256" s="68"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="24"/>
     </row>
     <row r="257" s="11" customFormat="1" spans="1:7">
-      <c r="A257" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="G257" s="79"/>
+      <c r="A257" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B257" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C257" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D257" s="72"/>
+      <c r="E257" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G257" s="83"/>
     </row>
     <row r="258" s="7" customFormat="1" spans="1:7">
       <c r="A258" s="43"/>
+      <c r="B258" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="G258" s="53"/>
     </row>
     <row r="259" s="7" customFormat="1" spans="1:7">
       <c r="A259" s="43"/>
+      <c r="C259" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="G259" s="53"/>
     </row>
     <row r="260" s="7" customFormat="1" spans="1:7">
       <c r="A260" s="43"/>
+      <c r="C260" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="G260" s="53"/>
     </row>
     <row r="261" s="7" customFormat="1" spans="1:7">
@@ -4628,8 +5045,8 @@
       <c r="G261" s="53"/>
     </row>
     <row r="262" s="3" customFormat="1" spans="1:7">
-      <c r="A262" s="19" t="s">
-        <v>175</v>
+      <c r="A262" s="73" t="s">
+        <v>191</v>
       </c>
       <c r="G262" s="48"/>
     </row>
@@ -4650,167 +5067,262 @@
       <c r="G266" s="48"/>
     </row>
     <row r="267" s="12" customFormat="1" spans="1:7">
-      <c r="A267" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="G267" s="80"/>
+      <c r="A267" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="G267" s="84"/>
     </row>
     <row r="268" s="12" customFormat="1" spans="1:7">
-      <c r="A268" s="72"/>
-      <c r="G268" s="80"/>
+      <c r="A268" s="75"/>
+      <c r="G268" s="84"/>
     </row>
     <row r="269" s="12" customFormat="1" spans="1:7">
-      <c r="A269" s="72"/>
-      <c r="G269" s="80"/>
+      <c r="A269" s="75"/>
+      <c r="G269" s="84"/>
     </row>
     <row r="270" s="12" customFormat="1" spans="1:7">
-      <c r="A270" s="72"/>
-      <c r="G270" s="80"/>
+      <c r="A270" s="75"/>
+      <c r="G270" s="84"/>
     </row>
     <row r="271" s="12" customFormat="1" spans="1:7">
-      <c r="A271" s="73"/>
-      <c r="G271" s="80"/>
+      <c r="A271" s="76"/>
+      <c r="G271" s="84"/>
     </row>
     <row r="272" s="12" customFormat="1" spans="1:7">
-      <c r="A272" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="G272" s="80"/>
+      <c r="A272" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="G272" s="84"/>
     </row>
     <row r="273" s="12" customFormat="1" spans="1:7">
-      <c r="A273" s="72"/>
-      <c r="G273" s="80"/>
+      <c r="A273" s="75"/>
+      <c r="G273" s="84"/>
     </row>
     <row r="274" s="12" customFormat="1" spans="1:7">
-      <c r="A274" s="72"/>
-      <c r="G274" s="80"/>
+      <c r="A274" s="75"/>
+      <c r="G274" s="84"/>
     </row>
     <row r="275" s="12" customFormat="1" spans="1:7">
-      <c r="A275" s="72"/>
-      <c r="G275" s="80"/>
+      <c r="A275" s="75"/>
+      <c r="G275" s="84"/>
     </row>
     <row r="276" s="12" customFormat="1" spans="1:7">
-      <c r="A276" s="73"/>
-      <c r="G276" s="80"/>
+      <c r="A276" s="76"/>
+      <c r="G276" s="84"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="74" t="s">
-        <v>178</v>
+      <c r="A277" s="78" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="75"/>
+      <c r="A278" s="79"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="75"/>
+      <c r="A279" s="79"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="75"/>
+      <c r="A280" s="79"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="75"/>
+      <c r="A281" s="79"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="76" t="s">
-        <v>179</v>
+      <c r="A282" s="80" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="75"/>
+      <c r="A283" s="79"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="75"/>
+      <c r="A284" s="79"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="75"/>
+      <c r="A285" s="79"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="77"/>
+      <c r="A286" s="81"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="76" t="s">
-        <v>180</v>
+      <c r="A287" s="80" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="75"/>
+      <c r="A288" s="79"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="75"/>
+      <c r="A289" s="79"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="75"/>
+      <c r="A290" s="79"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="77"/>
+      <c r="A291" s="81"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="76" t="s">
-        <v>181</v>
+      <c r="A292" s="80" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="75"/>
+      <c r="A293" s="79"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="75"/>
+      <c r="A294" s="79"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="75"/>
+      <c r="A295" s="79"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="77"/>
+      <c r="A296" s="81"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="76" t="s">
-        <v>182</v>
+      <c r="A297" s="80" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="75"/>
+      <c r="A298" s="79"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="75"/>
+      <c r="A299" s="79"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="75"/>
+      <c r="A300" s="79"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="77"/>
-    </row>
-    <row r="302" ht="18" spans="1:1">
-      <c r="A302" s="78"/>
-    </row>
-    <row r="303" ht="18" spans="1:1">
-      <c r="A303" s="78"/>
-    </row>
-    <row r="304" ht="18" spans="1:1">
-      <c r="A304" s="78"/>
-    </row>
-    <row r="305" ht="18" spans="1:1">
-      <c r="A305" s="78"/>
-    </row>
-    <row r="306" ht="18" spans="1:1">
-      <c r="A306" s="78"/>
-    </row>
-    <row r="307" ht="18" spans="1:1">
-      <c r="A307" s="78"/>
-    </row>
-    <row r="308" ht="18" spans="1:1">
-      <c r="A308" s="78"/>
-    </row>
-    <row r="309" ht="18" spans="1:1">
-      <c r="A309" s="78"/>
-    </row>
-    <row r="310" ht="18" spans="1:1">
-      <c r="A310" s="78"/>
-    </row>
-    <row r="311" ht="18" spans="1:1">
-      <c r="A311" s="78"/>
+      <c r="A301" s="81"/>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="79"/>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="79"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="79"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="79"/>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="79"/>
+      <c r="B308" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="79"/>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="79"/>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="81"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="79"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="79"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="79"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="81"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="79"/>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="79"/>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="79"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="81"/>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="79"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="79"/>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="79"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="81"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="79"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="79"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="79"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="81"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="79"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="79"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="79"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="81"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="61">
+  <mergeCells count="68">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -4872,6 +5384,13 @@
     <mergeCell ref="A287:A291"/>
     <mergeCell ref="A292:A296"/>
     <mergeCell ref="A297:A301"/>
+    <mergeCell ref="A302:A306"/>
+    <mergeCell ref="A307:A311"/>
+    <mergeCell ref="A312:A316"/>
+    <mergeCell ref="A317:A321"/>
+    <mergeCell ref="A322:A326"/>
+    <mergeCell ref="A327:A331"/>
+    <mergeCell ref="A332:A336"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E247" r:id="rId1" display="来歆余响" tooltip="https://genshin.honeyhunterworld.com/db/art/family/a_15024/?lang=CHS"/>
